--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N2">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O2">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P2">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q2">
-        <v>698.5283646067797</v>
+        <v>1064.419017307793</v>
       </c>
       <c r="R2">
-        <v>698.5283646067797</v>
+        <v>9579.771155770135</v>
       </c>
       <c r="S2">
-        <v>0.01723837455375097</v>
+        <v>0.02257580473940106</v>
       </c>
       <c r="T2">
-        <v>0.01723837455375097</v>
+        <v>0.02257580473940106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N3">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O3">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P3">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q3">
-        <v>182.412556387847</v>
+        <v>253.9458827111971</v>
       </c>
       <c r="R3">
-        <v>182.412556387847</v>
+        <v>2285.512944400774</v>
       </c>
       <c r="S3">
-        <v>0.004501600979497871</v>
+        <v>0.005386067487748611</v>
       </c>
       <c r="T3">
-        <v>0.004501600979497871</v>
+        <v>0.00538606748774861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N4">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O4">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P4">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q4">
-        <v>1956.113228057321</v>
+        <v>2715.170855161072</v>
       </c>
       <c r="R4">
-        <v>1956.113228057321</v>
+        <v>24436.53769644965</v>
       </c>
       <c r="S4">
-        <v>0.0482732186742066</v>
+        <v>0.05758744071978936</v>
       </c>
       <c r="T4">
-        <v>0.0482732186742066</v>
+        <v>0.05758744071978935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N5">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O5">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P5">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q5">
-        <v>2074.256510487477</v>
+        <v>2632.404391119876</v>
       </c>
       <c r="R5">
-        <v>2074.256510487477</v>
+        <v>23691.63952007888</v>
       </c>
       <c r="S5">
-        <v>0.0511887740857425</v>
+        <v>0.0558320046548732</v>
       </c>
       <c r="T5">
-        <v>0.0511887740857425</v>
+        <v>0.05583200465487319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N6">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O6">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P6">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q6">
-        <v>1606.722077111548</v>
+        <v>2043.461435768532</v>
       </c>
       <c r="R6">
-        <v>1606.722077111548</v>
+        <v>18391.15292191679</v>
       </c>
       <c r="S6">
-        <v>0.03965089804852971</v>
+        <v>0.04334081373620039</v>
       </c>
       <c r="T6">
-        <v>0.03965089804852971</v>
+        <v>0.04334081373620039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N7">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O7">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P7">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q7">
-        <v>842.3278591686221</v>
+        <v>1127.031876380816</v>
       </c>
       <c r="R7">
-        <v>842.3278591686221</v>
+        <v>10143.28688742734</v>
       </c>
       <c r="S7">
-        <v>0.02078707733161531</v>
+        <v>0.02390379273813432</v>
       </c>
       <c r="T7">
-        <v>0.02078707733161531</v>
+        <v>0.02390379273813432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N8">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O8">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P8">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q8">
-        <v>800.8617275043033</v>
+        <v>981.0129537300382</v>
       </c>
       <c r="R8">
-        <v>800.8617275043033</v>
+        <v>8829.116583570345</v>
       </c>
       <c r="S8">
-        <v>0.01976377069849517</v>
+        <v>0.02080680308235065</v>
       </c>
       <c r="T8">
-        <v>0.01976377069849517</v>
+        <v>0.02080680308235065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N9">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O9">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P9">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q9">
-        <v>209.1357236573832</v>
+        <v>234.0471153138514</v>
       </c>
       <c r="R9">
-        <v>209.1357236573832</v>
+        <v>2106.424037824662</v>
       </c>
       <c r="S9">
-        <v>0.005161078804588229</v>
+        <v>0.004964024401320614</v>
       </c>
       <c r="T9">
-        <v>0.005161078804588229</v>
+        <v>0.004964024401320613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N10">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O10">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P10">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q10">
-        <v>2242.680896570139</v>
+        <v>2502.414685562737</v>
       </c>
       <c r="R10">
-        <v>2242.680896570139</v>
+        <v>22521.73217006463</v>
       </c>
       <c r="S10">
-        <v>0.05534517316470167</v>
+        <v>0.05307498682348132</v>
       </c>
       <c r="T10">
-        <v>0.05534517316470167</v>
+        <v>0.05307498682348132</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N11">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O11">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P11">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q11">
-        <v>2378.131993553589</v>
+        <v>2426.133660854808</v>
       </c>
       <c r="R11">
-        <v>2378.131993553589</v>
+        <v>21835.20294769327</v>
       </c>
       <c r="S11">
-        <v>0.05868785309271228</v>
+        <v>0.05145710374254642</v>
       </c>
       <c r="T11">
-        <v>0.05868785309271228</v>
+        <v>0.05145710374254642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N12">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O12">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P12">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q12">
-        <v>1842.104463458989</v>
+        <v>1883.339273669736</v>
       </c>
       <c r="R12">
-        <v>1842.104463458989</v>
+        <v>16950.05346302762</v>
       </c>
       <c r="S12">
-        <v>0.04545969543572965</v>
+        <v>0.03994470129625528</v>
       </c>
       <c r="T12">
-        <v>0.04545969543572965</v>
+        <v>0.03994470129625528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N13">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O13">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P13">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q13">
-        <v>965.7276334061652</v>
+        <v>1038.719575673028</v>
       </c>
       <c r="R13">
-        <v>965.7276334061652</v>
+        <v>9348.476181057247</v>
       </c>
       <c r="S13">
-        <v>0.02383235313706172</v>
+        <v>0.02203073220046283</v>
       </c>
       <c r="T13">
-        <v>0.02383235313706172</v>
+        <v>0.02203073220046282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N14">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O14">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P14">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q14">
-        <v>702.3812102641976</v>
+        <v>993.8743957787799</v>
       </c>
       <c r="R14">
-        <v>702.3812102641976</v>
+        <v>8944.86956200902</v>
       </c>
       <c r="S14">
-        <v>0.01733345558396475</v>
+        <v>0.02107958795338189</v>
       </c>
       <c r="T14">
-        <v>0.01733345558396475</v>
+        <v>0.02107958795338189</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N15">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O15">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P15">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q15">
-        <v>183.4186822108593</v>
+        <v>237.1155594142466</v>
       </c>
       <c r="R15">
-        <v>183.4186822108593</v>
+        <v>2134.04003472822</v>
       </c>
       <c r="S15">
-        <v>0.004526430284453942</v>
+        <v>0.005029104594118652</v>
       </c>
       <c r="T15">
-        <v>0.004526430284453942</v>
+        <v>0.005029104594118652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N16">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O16">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P16">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q16">
-        <v>1966.902485499116</v>
+        <v>2535.22226607216</v>
       </c>
       <c r="R16">
-        <v>1966.902485499116</v>
+        <v>22817.00039464944</v>
       </c>
       <c r="S16">
-        <v>0.04853947738374834</v>
+        <v>0.05377081949793526</v>
       </c>
       <c r="T16">
-        <v>0.04853947738374834</v>
+        <v>0.05377081949793525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N17">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O17">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P17">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q17">
-        <v>2085.697406224477</v>
+        <v>2457.941168964606</v>
       </c>
       <c r="R17">
-        <v>2085.697406224477</v>
+        <v>22121.47052068146</v>
       </c>
       <c r="S17">
-        <v>0.05147111401055832</v>
+        <v>0.05213172537242856</v>
       </c>
       <c r="T17">
-        <v>0.05147111401055832</v>
+        <v>0.05213172537242855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N18">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O18">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P18">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q18">
-        <v>1615.584211408645</v>
+        <v>1908.030546944286</v>
       </c>
       <c r="R18">
-        <v>1615.584211408645</v>
+        <v>17172.27492249858</v>
       </c>
       <c r="S18">
-        <v>0.03986959896047478</v>
+        <v>0.04046839107927262</v>
       </c>
       <c r="T18">
-        <v>0.03986959896047478</v>
+        <v>0.04046839107927262</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N19">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O19">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P19">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q19">
-        <v>846.9738540898834</v>
+        <v>1052.337572842806</v>
       </c>
       <c r="R19">
-        <v>846.9738540898834</v>
+        <v>9471.038155585258</v>
       </c>
       <c r="S19">
-        <v>0.02090173180333832</v>
+        <v>0.02231956323415127</v>
       </c>
       <c r="T19">
-        <v>0.02090173180333832</v>
+        <v>0.02231956323415126</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N20">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O20">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P20">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q20">
-        <v>624.8462342291911</v>
+        <v>760.5274274440142</v>
       </c>
       <c r="R20">
-        <v>624.8462342291911</v>
+        <v>6844.746846996128</v>
       </c>
       <c r="S20">
-        <v>0.01542003728110179</v>
+        <v>0.01613041332572344</v>
       </c>
       <c r="T20">
-        <v>0.01542003728110179</v>
+        <v>0.01613041332572344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N21">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O21">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P21">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q21">
-        <v>163.1713251891045</v>
+        <v>181.444342639454</v>
       </c>
       <c r="R21">
-        <v>163.1713251891045</v>
+        <v>1632.999083755086</v>
       </c>
       <c r="S21">
-        <v>0.004026763353589926</v>
+        <v>0.003848345420263008</v>
       </c>
       <c r="T21">
-        <v>0.004026763353589926</v>
+        <v>0.003848345420263007</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N22">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O22">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P22">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q22">
-        <v>1749.77860056631</v>
+        <v>1939.989676969008</v>
       </c>
       <c r="R22">
-        <v>1749.77860056631</v>
+        <v>17459.90709272107</v>
       </c>
       <c r="S22">
-        <v>0.04318126568801541</v>
+        <v>0.04114622853552564</v>
       </c>
       <c r="T22">
-        <v>0.04318126568801541</v>
+        <v>0.04114622853552564</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N23">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O23">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P23">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q23">
-        <v>1855.459899803908</v>
+        <v>1880.853035334122</v>
       </c>
       <c r="R23">
-        <v>1855.459899803908</v>
+        <v>16927.6773180071</v>
       </c>
       <c r="S23">
-        <v>0.04578928264465005</v>
+        <v>0.03989196940187182</v>
       </c>
       <c r="T23">
-        <v>0.04578928264465005</v>
+        <v>0.03989196940187181</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N24">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O24">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P24">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q24">
-        <v>1437.241907708655</v>
+        <v>1460.053271837306</v>
       </c>
       <c r="R24">
-        <v>1437.241907708655</v>
+        <v>13140.47944653576</v>
       </c>
       <c r="S24">
-        <v>0.03546844421038835</v>
+        <v>0.03096701302602832</v>
       </c>
       <c r="T24">
-        <v>0.03546844421038835</v>
+        <v>0.03096701302602831</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N25">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O25">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P25">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q25">
-        <v>753.4774784473249</v>
+        <v>805.2643175797821</v>
       </c>
       <c r="R25">
-        <v>753.4774784473249</v>
+        <v>7247.378858218039</v>
       </c>
       <c r="S25">
-        <v>0.01859441598853686</v>
+        <v>0.01707926080019607</v>
       </c>
       <c r="T25">
-        <v>0.01859441598853686</v>
+        <v>0.01707926080019606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H26">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N26">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O26">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P26">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q26">
-        <v>658.8433598117193</v>
+        <v>810.0551171141337</v>
       </c>
       <c r="R26">
-        <v>658.8433598117193</v>
+        <v>7290.496054027203</v>
       </c>
       <c r="S26">
-        <v>0.01625902280300316</v>
+        <v>0.01718087130609128</v>
       </c>
       <c r="T26">
-        <v>0.01625902280300316</v>
+        <v>0.01718087130609128</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H27">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N27">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O27">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P27">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q27">
-        <v>172.0492790440473</v>
+        <v>193.2605096445648</v>
       </c>
       <c r="R27">
-        <v>172.0492790440473</v>
+        <v>1739.344586801083</v>
       </c>
       <c r="S27">
-        <v>0.004245854662657343</v>
+        <v>0.004098960520837067</v>
       </c>
       <c r="T27">
-        <v>0.004245854662657343</v>
+        <v>0.004098960520837066</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H28">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N28">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O28">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P28">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q28">
-        <v>1844.981931508133</v>
+        <v>2066.327272717624</v>
       </c>
       <c r="R28">
-        <v>1844.981931508133</v>
+        <v>18596.94545445862</v>
       </c>
       <c r="S28">
-        <v>0.04553070596946153</v>
+        <v>0.04382578691102335</v>
       </c>
       <c r="T28">
-        <v>0.04553070596946153</v>
+        <v>0.04382578691102334</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H29">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N29">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O29">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P29">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q29">
-        <v>1956.413222031727</v>
+        <v>2003.339486299085</v>
       </c>
       <c r="R29">
-        <v>1956.413222031727</v>
+        <v>18030.05537669177</v>
       </c>
       <c r="S29">
-        <v>0.04828062196483399</v>
+        <v>0.04248984688737678</v>
       </c>
       <c r="T29">
-        <v>0.04828062196483399</v>
+        <v>0.04248984688737677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N30">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O30">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P30">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q30">
-        <v>1515.440496340816</v>
+        <v>1555.136056152437</v>
       </c>
       <c r="R30">
-        <v>1515.440496340816</v>
+        <v>13996.22450537193</v>
       </c>
       <c r="S30">
-        <v>0.03739823923191868</v>
+        <v>0.03298367219678069</v>
       </c>
       <c r="T30">
-        <v>0.03739823923191868</v>
+        <v>0.03298367219678068</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H31">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N31">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O31">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P31">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q31">
-        <v>794.4732739808939</v>
+        <v>857.7053996293154</v>
       </c>
       <c r="R31">
-        <v>794.4732739808939</v>
+        <v>7719.348596663838</v>
       </c>
       <c r="S31">
-        <v>0.01960611560496471</v>
+        <v>0.01819151040248857</v>
       </c>
       <c r="T31">
-        <v>0.01960611560496471</v>
+        <v>0.01819151040248857</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H32">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.23759845963543</v>
+        <v>11.166443</v>
       </c>
       <c r="N32">
-        <v>9.23759845963543</v>
+        <v>33.499329</v>
       </c>
       <c r="O32">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="P32">
-        <v>0.09490409546014868</v>
+        <v>0.108211886127637</v>
       </c>
       <c r="Q32">
-        <v>360.2150627384585</v>
+        <v>492.1568771404191</v>
       </c>
       <c r="R32">
-        <v>360.2150627384585</v>
+        <v>4429.411894263771</v>
       </c>
       <c r="S32">
-        <v>0.008889434539832835</v>
+        <v>0.01043840572068869</v>
       </c>
       <c r="T32">
-        <v>0.008889434539832835</v>
+        <v>0.01043840572068869</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H33">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.41229137610625</v>
+        <v>2.664056333333333</v>
       </c>
       <c r="N33">
-        <v>2.41229137610625</v>
+        <v>7.992169</v>
       </c>
       <c r="O33">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="P33">
-        <v>0.02478310050345229</v>
+        <v>0.02581686581665055</v>
       </c>
       <c r="Q33">
-        <v>94.06597322718538</v>
+        <v>117.4173051829923</v>
       </c>
       <c r="R33">
-        <v>94.06597322718538</v>
+        <v>1056.755746646931</v>
       </c>
       <c r="S33">
-        <v>0.002321372418664978</v>
+        <v>0.002490363392362599</v>
       </c>
       <c r="T33">
-        <v>0.002321372418664978</v>
+        <v>0.002490363392362598</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H34">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.8683676396545</v>
+        <v>28.483896</v>
       </c>
       <c r="N34">
-        <v>25.8683676396545</v>
+        <v>85.451688</v>
       </c>
       <c r="O34">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="P34">
-        <v>0.2657632330090348</v>
+        <v>0.2760320462320414</v>
       </c>
       <c r="Q34">
-        <v>1008.722744658833</v>
+        <v>1255.417262610168</v>
       </c>
       <c r="R34">
-        <v>1008.722744658833</v>
+        <v>11298.75536349151</v>
       </c>
       <c r="S34">
-        <v>0.02489339212890123</v>
+        <v>0.02662678374428649</v>
       </c>
       <c r="T34">
-        <v>0.02489339212890123</v>
+        <v>0.02662678374428648</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H35">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.4307382735334</v>
+        <v>27.61562233333333</v>
       </c>
       <c r="N35">
-        <v>27.4307382735334</v>
+        <v>82.846867</v>
       </c>
       <c r="O35">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="P35">
-        <v>0.2818145230093178</v>
+        <v>0.2676177704286402</v>
       </c>
       <c r="Q35">
-        <v>1069.646526782788</v>
+        <v>1217.14841940827</v>
       </c>
       <c r="R35">
-        <v>1069.646526782788</v>
+        <v>10954.33577467443</v>
       </c>
       <c r="S35">
-        <v>0.02639687721082064</v>
+        <v>0.02581512036954337</v>
       </c>
       <c r="T35">
-        <v>0.02639687721082064</v>
+        <v>0.02581512036954336</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H36">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.247889329366</v>
+        <v>21.43723033333333</v>
       </c>
       <c r="N36">
-        <v>21.247889329366</v>
+        <v>64.311691</v>
       </c>
       <c r="O36">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="P36">
-        <v>0.2182939349498862</v>
+        <v>0.2077441426712689</v>
       </c>
       <c r="Q36">
-        <v>828.5497384716873</v>
+        <v>944.8380594781343</v>
       </c>
       <c r="R36">
-        <v>828.5497384716873</v>
+        <v>8503.542535303208</v>
       </c>
       <c r="S36">
-        <v>0.020447059062845</v>
+        <v>0.02003955133673165</v>
       </c>
       <c r="T36">
-        <v>0.020447059062845</v>
+        <v>0.02003955133673164</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H37">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.1392563689869</v>
+        <v>11.82329233333333</v>
       </c>
       <c r="N37">
-        <v>11.1392563689869</v>
+        <v>35.469877</v>
       </c>
       <c r="O37">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="P37">
-        <v>0.1144411130681603</v>
+        <v>0.1145772887237619</v>
       </c>
       <c r="Q37">
-        <v>434.369165248686</v>
+        <v>521.1072704433803</v>
       </c>
       <c r="R37">
-        <v>434.369165248686</v>
+        <v>4689.965433990422</v>
       </c>
       <c r="S37">
-        <v>0.01071941920264339</v>
+        <v>0.01105242934832886</v>
       </c>
       <c r="T37">
-        <v>0.01071941920264339</v>
+        <v>0.01105242934832886</v>
       </c>
     </row>
   </sheetData>
